--- a/CashFlow/PSX_cashflow.xlsx
+++ b/CashFlow/PSX_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="16.5"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
@@ -619,10 +619,8 @@
           <t>Accounts Receivable Change</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B5" s="0" t="n">
+        <v>-3617000000.0</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2023000000.0</v>
@@ -747,10 +745,8 @@
           <t>Change in inventories</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B6" s="0" t="n">
+        <v>15098000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>19186000000.0</v>
@@ -875,10 +871,8 @@
           <t>Accounts Payable Change</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B7" s="0" t="n">
+        <v>3131000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>-2887000000.0</v>
@@ -1201,10 +1195,8 @@
           <t>Income tax paid</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B9" s="0" t="n">
+        <v>-294000000.0</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>517000000.0</v>
@@ -1330,7 +1322,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>267000000.0</v>
+        <v>-114000000.0</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>609000000.0</v>
@@ -2076,7 +2068,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>22000000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>-433000000.0</v>
@@ -2088,7 +2080,7 @@
         <v>-1132000000.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-1576000000.0</v>
+        <v>-1578000000.0</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>-1445000000.0</v>
@@ -3366,7 +3358,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>22000000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>-433000000.0</v>
@@ -3378,7 +3370,7 @@
         <v>-1132000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-1576000000.0</v>
+        <v>-1578000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>-1445000000.0</v>
@@ -3497,10 +3489,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>22000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>-433000000.0</v>
